--- a/egyeb-fileok/WAN_címek.xlsx
+++ b/egyeb-fileok/WAN_címek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Iskola\2024-2025\SKR\WAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D33D02-46F7-44D7-B0C1-20B5725FC48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD3FAAC-5729-42AC-822C-7B0B1CE21F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{304B6F12-A953-4A30-8CB1-6CCE6C10E0B2}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{304B6F12-A953-4A30-8CB1-6CCE6C10E0B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>IPv4 cím</t>
   </si>
@@ -153,6 +153,27 @@
   </si>
   <si>
     <t>Dialer1</t>
+  </si>
+  <si>
+    <t>Link-local</t>
+  </si>
+  <si>
+    <t>fe80:ab12::1</t>
+  </si>
+  <si>
+    <t>fe80:ab12::2</t>
+  </si>
+  <si>
+    <t>fe80:c112::1</t>
+  </si>
+  <si>
+    <t>fe80:ba12::1</t>
+  </si>
+  <si>
+    <t>fe80:c112::2</t>
+  </si>
+  <si>
+    <t>fe80:ba12::2</t>
   </si>
 </sst>
 </file>
@@ -628,6 +649,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -655,22 +679,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1031,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9969D3-48DA-43D8-9360-F1F2208AAD7D}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1050,8 +1071,9 @@
     <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
@@ -1072,16 +1094,16 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="36" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -1089,23 +1111,23 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="34"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="34"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
@@ -1120,21 +1142,21 @@
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="25"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
@@ -1144,19 +1166,19 @@
       <c r="C7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="26"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
     </row>
     <row r="11" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I11" s="3" t="s">
@@ -1202,10 +1224,10 @@
       <c r="K13" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="30" t="s">
+      <c r="M13" s="31" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1219,78 +1241,99 @@
       <c r="K14" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="33"/>
-      <c r="M14" s="31"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="32"/>
     </row>
     <row r="16" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="16:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="16:19" x14ac:dyDescent="0.35">
       <c r="P17" s="3" t="s">
         <v>1</v>
       </c>
       <c r="Q17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="R17" s="5" t="s">
+      <c r="R17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S17" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P18" s="27" t="s">
+    <row r="18" spans="16:19" x14ac:dyDescent="0.35">
+      <c r="P18" s="28" t="s">
         <v>4</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="R18" s="8" t="s">
+      <c r="R18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="S18" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P19" s="27"/>
+    <row r="19" spans="16:19" x14ac:dyDescent="0.35">
+      <c r="P19" s="28"/>
       <c r="Q19" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="R19" s="9" t="s">
+      <c r="R19" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="S19" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="16:18" x14ac:dyDescent="0.35">
-      <c r="P20" s="27"/>
+    <row r="20" spans="16:19" x14ac:dyDescent="0.35">
+      <c r="P20" s="28"/>
       <c r="Q20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R20" s="8" t="s">
+      <c r="R20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S20" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="16:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="16:19" x14ac:dyDescent="0.35">
       <c r="P21" s="10" t="s">
         <v>5</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R21" s="25" t="s">
+      <c r="R21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S21" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="16:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="16:19" x14ac:dyDescent="0.35">
       <c r="P22" s="6" t="s">
         <v>6</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="R22" s="25"/>
-    </row>
-    <row r="23" spans="16:18" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="R22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="S22" s="26"/>
+    </row>
+    <row r="23" spans="16:19" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="P23" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="R23" s="26"/>
+      <c r="R23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="S23" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1299,13 +1342,13 @@
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="S21:S23"/>
     <mergeCell ref="P18:P20"/>
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="M13:M14"/>
     <mergeCell ref="L13:L14"/>
   </mergeCells>
-  <conditionalFormatting sqref="Q19">
+  <conditionalFormatting sqref="Q19:R19">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
